--- a/daishin/data/new2020-03-11.xlsx
+++ b/daishin/data/new2020-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="329">
   <si>
     <t>코드</t>
   </si>
@@ -28,397 +28,979 @@
     <t>특이사항</t>
   </si>
   <si>
+    <t>A105780</t>
+  </si>
+  <si>
+    <t>A290130</t>
+  </si>
+  <si>
+    <t>A326240</t>
+  </si>
+  <si>
+    <t>A140580</t>
+  </si>
+  <si>
+    <t>A122630</t>
+  </si>
+  <si>
+    <t>A065150</t>
+  </si>
+  <si>
+    <t>A035420</t>
+  </si>
+  <si>
+    <t>A017670</t>
+  </si>
+  <si>
+    <t>A000660</t>
+  </si>
+  <si>
+    <t>A071970</t>
+  </si>
+  <si>
+    <t>A097750</t>
+  </si>
+  <si>
+    <t>A057030</t>
+  </si>
+  <si>
+    <t>A004200</t>
+  </si>
+  <si>
+    <t>A089600</t>
+  </si>
+  <si>
+    <t>A085910</t>
+  </si>
+  <si>
+    <t>A003580</t>
+  </si>
+  <si>
+    <t>A251270</t>
+  </si>
+  <si>
+    <t>A900100</t>
+  </si>
+  <si>
+    <t>A001680</t>
+  </si>
+  <si>
+    <t>A025440</t>
+  </si>
+  <si>
+    <t>A139050</t>
+  </si>
+  <si>
+    <t>A094170</t>
+  </si>
+  <si>
+    <t>A000150</t>
+  </si>
+  <si>
+    <t>A042670</t>
+  </si>
+  <si>
+    <t>A034020</t>
+  </si>
+  <si>
+    <t>A336260</t>
+  </si>
+  <si>
+    <t>A066900</t>
+  </si>
+  <si>
+    <t>A127120</t>
+  </si>
+  <si>
+    <t>A038390</t>
+  </si>
+  <si>
+    <t>A038290</t>
+  </si>
+  <si>
+    <t>A127160</t>
+  </si>
+  <si>
+    <t>A215200</t>
+  </si>
+  <si>
+    <t>A268280</t>
+  </si>
+  <si>
+    <t>A107590</t>
+  </si>
+  <si>
+    <t>A065940</t>
+  </si>
+  <si>
+    <t>A177350</t>
+  </si>
+  <si>
+    <t>A210120</t>
+  </si>
+  <si>
+    <t>A006400</t>
+  </si>
+  <si>
+    <t>A028260</t>
+  </si>
+  <si>
+    <t>A018260</t>
+  </si>
+  <si>
+    <t>A009150</t>
+  </si>
+  <si>
+    <t>A005930</t>
+  </si>
+  <si>
+    <t>A001880</t>
+  </si>
+  <si>
+    <t>A200880</t>
+  </si>
+  <si>
+    <t>A003100</t>
+  </si>
+  <si>
+    <t>A084180</t>
+  </si>
+  <si>
+    <t>A055550</t>
+  </si>
+  <si>
+    <t>A096530</t>
+  </si>
+  <si>
+    <t>A058220</t>
+  </si>
+  <si>
+    <t>A099190</t>
+  </si>
+  <si>
     <t>A124500</t>
   </si>
   <si>
-    <t>A085910</t>
-  </si>
-  <si>
-    <t>A089600</t>
-  </si>
-  <si>
-    <t>A065940</t>
-  </si>
-  <si>
-    <t>A035420</t>
+    <t>A131370</t>
+  </si>
+  <si>
+    <t>A061040</t>
+  </si>
+  <si>
+    <t>A052790</t>
+  </si>
+  <si>
+    <t>A087730</t>
+  </si>
+  <si>
+    <t>A112240</t>
+  </si>
+  <si>
+    <t>A039230</t>
+  </si>
+  <si>
+    <t>A037950</t>
+  </si>
+  <si>
+    <t>A015360</t>
+  </si>
+  <si>
+    <t>A271560</t>
+  </si>
+  <si>
+    <t>A001800</t>
+  </si>
+  <si>
+    <t>A053980</t>
+  </si>
+  <si>
+    <t>A082850</t>
+  </si>
+  <si>
+    <t>A010050</t>
+  </si>
+  <si>
+    <t>A016880</t>
+  </si>
+  <si>
+    <t>A049520</t>
+  </si>
+  <si>
+    <t>A003470</t>
+  </si>
+  <si>
+    <t>A003460</t>
+  </si>
+  <si>
+    <t>A036260</t>
+  </si>
+  <si>
+    <t>A223310</t>
+  </si>
+  <si>
+    <t>A039030</t>
+  </si>
+  <si>
+    <t>A071200</t>
+  </si>
+  <si>
+    <t>A030000</t>
+  </si>
+  <si>
+    <t>A000480</t>
+  </si>
+  <si>
+    <t>A013890</t>
+  </si>
+  <si>
+    <t>A263700</t>
+  </si>
+  <si>
+    <t>A005420</t>
+  </si>
+  <si>
+    <t>A005690</t>
+  </si>
+  <si>
+    <t>A227420</t>
+  </si>
+  <si>
+    <t>A220100</t>
+  </si>
+  <si>
+    <t>A242350</t>
+  </si>
+  <si>
+    <t>A039130</t>
+  </si>
+  <si>
+    <t>A003350</t>
+  </si>
+  <si>
+    <t>A070300</t>
+  </si>
+  <si>
+    <t>A123840</t>
+  </si>
+  <si>
+    <t>A088350</t>
+  </si>
+  <si>
+    <t>A005380</t>
+  </si>
+  <si>
+    <t>A241590</t>
+  </si>
+  <si>
+    <t>A006060</t>
+  </si>
+  <si>
+    <t>A243070</t>
   </si>
   <si>
     <t>A084110</t>
   </si>
   <si>
-    <t>A082850</t>
-  </si>
-  <si>
-    <t>A038290</t>
-  </si>
-  <si>
-    <t>A057030</t>
-  </si>
-  <si>
-    <t>A223310</t>
-  </si>
-  <si>
-    <t>A123840</t>
-  </si>
-  <si>
-    <t>A139050</t>
-  </si>
-  <si>
-    <t>A066900</t>
-  </si>
-  <si>
-    <t>A005690</t>
-  </si>
-  <si>
-    <t>A037950</t>
-  </si>
-  <si>
-    <t>A053980</t>
-  </si>
-  <si>
-    <t>A096530</t>
-  </si>
-  <si>
-    <t>A215200</t>
-  </si>
-  <si>
-    <t>A013890</t>
-  </si>
-  <si>
-    <t>A034020</t>
-  </si>
-  <si>
-    <t>A042670</t>
-  </si>
-  <si>
-    <t>A039230</t>
-  </si>
-  <si>
-    <t>A003100</t>
-  </si>
-  <si>
-    <t>A039030</t>
-  </si>
-  <si>
-    <t>A084180</t>
-  </si>
-  <si>
-    <t>A005930</t>
-  </si>
-  <si>
-    <t>A006400</t>
-  </si>
-  <si>
-    <t>A009150</t>
-  </si>
-  <si>
-    <t>A018260</t>
-  </si>
-  <si>
-    <t>A028260</t>
-  </si>
-  <si>
-    <t>A003470</t>
-  </si>
-  <si>
-    <t>A006060</t>
-  </si>
-  <si>
-    <t>A177350</t>
-  </si>
-  <si>
-    <t>A004200</t>
-  </si>
-  <si>
-    <t>A039130</t>
-  </si>
-  <si>
-    <t>A015360</t>
-  </si>
-  <si>
-    <t>A003580</t>
-  </si>
-  <si>
-    <t>A112240</t>
-  </si>
-  <si>
-    <t>A140580</t>
-  </si>
-  <si>
-    <t>A326240</t>
-  </si>
-  <si>
-    <t>A290130</t>
-  </si>
-  <si>
-    <t>A105780</t>
+    <t>KBSTAR 5대그룹주</t>
+  </si>
+  <si>
+    <t>KBSTAR ESG사회책임투자</t>
+  </si>
+  <si>
+    <t>KBSTAR IT플러스</t>
+  </si>
+  <si>
+    <t>KBSTAR 우량업종</t>
+  </si>
+  <si>
+    <t>KODEX 레버리지</t>
+  </si>
+  <si>
+    <t>MP그룹</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>STX중공업</t>
+  </si>
+  <si>
+    <t>TREX 중소형가치</t>
+  </si>
+  <si>
+    <t>YBM넷</t>
+  </si>
+  <si>
+    <t>고려개발</t>
+  </si>
+  <si>
+    <t>나스미디어</t>
+  </si>
+  <si>
+    <t>네오티스</t>
+  </si>
+  <si>
+    <t>넥스트사이언스</t>
+  </si>
+  <si>
+    <t>넷마블</t>
+  </si>
+  <si>
+    <t>뉴프라이드</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>대성엘텍</t>
+  </si>
+  <si>
+    <t>데일리블록체인</t>
+  </si>
+  <si>
+    <t>동운아나텍</t>
+  </si>
+  <si>
+    <t>두산</t>
+  </si>
+  <si>
+    <t>두산인프라코어</t>
+  </si>
+  <si>
+    <t>두산중공업</t>
+  </si>
+  <si>
+    <t>두산퓨얼셀</t>
+  </si>
+  <si>
+    <t>디에이피</t>
+  </si>
+  <si>
+    <t>디엔에이링크</t>
+  </si>
+  <si>
+    <t>레드캡투어</t>
+  </si>
+  <si>
+    <t>마크로젠</t>
+  </si>
+  <si>
+    <t>매직마이크로</t>
+  </si>
+  <si>
+    <t>메가스터디교육</t>
+  </si>
+  <si>
+    <t>미원에스씨</t>
+  </si>
+  <si>
+    <t>미원홀딩스</t>
+  </si>
+  <si>
+    <t>바이오빌</t>
+  </si>
+  <si>
+    <t>베셀</t>
+  </si>
+  <si>
+    <t>빅텐츠</t>
+  </si>
+  <si>
+    <t>삼성SDI</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>삼호</t>
+  </si>
+  <si>
+    <t>서연이화</t>
+  </si>
+  <si>
+    <t>선광</t>
+  </si>
+  <si>
+    <t>수성</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>씨젠</t>
+  </si>
+  <si>
+    <t>아리온</t>
+  </si>
+  <si>
+    <t>아이센스</t>
   </si>
   <si>
     <t>아이티센</t>
   </si>
   <si>
-    <t>네오티스</t>
-  </si>
-  <si>
-    <t>나스미디어</t>
-  </si>
-  <si>
-    <t>바이오빌</t>
-  </si>
-  <si>
-    <t>NAVER</t>
+    <t>알서포트</t>
+  </si>
+  <si>
+    <t>알에프텍</t>
+  </si>
+  <si>
+    <t>액토즈소프트</t>
+  </si>
+  <si>
+    <t>에스모 머티리얼즈</t>
+  </si>
+  <si>
+    <t>에스에프씨</t>
+  </si>
+  <si>
+    <t>에이아이비트</t>
+  </si>
+  <si>
+    <t>엘컴텍</t>
+  </si>
+  <si>
+    <t>예스코홀딩스</t>
+  </si>
+  <si>
+    <t>오리온</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>오상자이엘</t>
+  </si>
+  <si>
+    <t>우리바이오</t>
+  </si>
+  <si>
+    <t>우리종금</t>
+  </si>
+  <si>
+    <t>웅진</t>
+  </si>
+  <si>
+    <t>유아이엘</t>
+  </si>
+  <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
+    <t>유화증권</t>
+  </si>
+  <si>
+    <t>이매진아시아</t>
+  </si>
+  <si>
+    <t>이에스브이</t>
+  </si>
+  <si>
+    <t>이오테크닉스</t>
+  </si>
+  <si>
+    <t>인피니트헬스케어</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>조선내화</t>
+  </si>
+  <si>
+    <t>지누스</t>
+  </si>
+  <si>
+    <t>케어랩스</t>
+  </si>
+  <si>
+    <t>코스모화학</t>
+  </si>
+  <si>
+    <t>파미셀</t>
+  </si>
+  <si>
+    <t>포레스팅블록체인</t>
+  </si>
+  <si>
+    <t>퓨쳐켐</t>
+  </si>
+  <si>
+    <t>피엔아이컴퍼니</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>한국화장품제조</t>
+  </si>
+  <si>
+    <t>한솔시큐어</t>
+  </si>
+  <si>
+    <t>한일진공</t>
+  </si>
+  <si>
+    <t>한화생명</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>화승엔터프라이즈</t>
+  </si>
+  <si>
+    <t>화승인더</t>
+  </si>
+  <si>
+    <t>휴온스</t>
   </si>
   <si>
     <t>휴온스글로벌</t>
   </si>
   <si>
-    <t>우리바이오</t>
-  </si>
-  <si>
-    <t>마크로젠</t>
-  </si>
-  <si>
-    <t>YBM넷</t>
-  </si>
-  <si>
-    <t>이에스브이</t>
-  </si>
-  <si>
-    <t>한일진공</t>
-  </si>
-  <si>
-    <t>데일리블록체인</t>
-  </si>
-  <si>
-    <t>디에이피</t>
-  </si>
-  <si>
-    <t>파미셀</t>
-  </si>
-  <si>
-    <t>엘컴텍</t>
-  </si>
-  <si>
-    <t>오상자이엘</t>
-  </si>
-  <si>
-    <t>씨젠</t>
-  </si>
-  <si>
-    <t>메가스터디교육</t>
-  </si>
-  <si>
-    <t>지누스</t>
-  </si>
-  <si>
-    <t>두산중공업</t>
-  </si>
-  <si>
-    <t>두산인프라코어</t>
-  </si>
-  <si>
-    <t>에이아이비트</t>
-  </si>
-  <si>
-    <t>선광</t>
-  </si>
-  <si>
-    <t>이오테크닉스</t>
-  </si>
-  <si>
-    <t>수성</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>삼성SDI</t>
-  </si>
-  <si>
-    <t>삼성전기</t>
-  </si>
-  <si>
-    <t>삼성에스디에스</t>
-  </si>
-  <si>
-    <t>삼성물산</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
-  </si>
-  <si>
-    <t>화승인더</t>
-  </si>
-  <si>
-    <t>베셀</t>
-  </si>
-  <si>
-    <t>고려개발</t>
-  </si>
-  <si>
-    <t>하나투어</t>
-  </si>
-  <si>
-    <t>예스코홀딩스</t>
-  </si>
-  <si>
-    <t>넥스트사이언스</t>
-  </si>
-  <si>
-    <t>에스에프씨</t>
-  </si>
-  <si>
-    <t>KBSTAR 우량업종</t>
-  </si>
-  <si>
-    <t>KBSTAR IT플러스</t>
-  </si>
-  <si>
-    <t>KBSTAR ESG사회책임투자</t>
-  </si>
-  <si>
-    <t>KBSTAR 5대그룹주</t>
+    <t>17:46</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>17:54</t>
+  </si>
+  <si>
+    <t>18:04</t>
+  </si>
+  <si>
+    <t>17:47</t>
+  </si>
+  <si>
+    <t>17:48</t>
+  </si>
+  <si>
+    <t>17:55</t>
+  </si>
+  <si>
+    <t>17:39</t>
+  </si>
+  <si>
+    <t>17:44</t>
+  </si>
+  <si>
+    <t>17:52</t>
+  </si>
+  <si>
+    <t>18:09</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:07</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>18:06</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>17:38</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>17:56</t>
+  </si>
+  <si>
+    <t>17:49</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>17:59</t>
   </si>
   <si>
     <t>17:42</t>
   </si>
   <si>
-    <t>17:41</t>
+    <t>17:57</t>
+  </si>
+  <si>
+    <t>18:08</t>
   </si>
   <si>
     <t>17:40</t>
   </si>
   <si>
-    <t>17:39</t>
-  </si>
-  <si>
-    <t>17:38</t>
-  </si>
-  <si>
-    <t>17:43</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>17:44</t>
-  </si>
-  <si>
-    <t>17:47</t>
-  </si>
-  <si>
-    <t>17:46</t>
+    <t>17:53</t>
+  </si>
+  <si>
+    <t>KB KBSTAR 5대그룹주증권상장지수투자신탁(주식) ETF유동성공급자(LP)와유동성공급계</t>
+  </si>
+  <si>
+    <t>KB KBSTAR 5대그룹주증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해지ㆍ변</t>
+  </si>
+  <si>
+    <t>KB KBSTAR ESG사회책임투자증권상장지수투자신탁(주식) ETF유동성공급자(LP)와유동성</t>
+  </si>
+  <si>
+    <t>KB KBSTAR ESG사회책임투자증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해</t>
+  </si>
+  <si>
+    <t>KB KBSTAR IT플러스증권상장지수투자신탁(주식) ETF유동성공급자(LP)와유동성공급계약</t>
+  </si>
+  <si>
+    <t>KB KBSTAR IT플러스증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해지ㆍ변경</t>
+  </si>
+  <si>
+    <t>KB KBSTAR 우량업종대표주증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해지</t>
+  </si>
+  <si>
+    <t>"곧 오르겠지"···레버리지 투자 나선 개인들</t>
+  </si>
+  <si>
+    <t>한국거래소, MP그룹 상장폐지 여부 결정 연기</t>
+  </si>
+  <si>
+    <t>네이버 콜센터, 오는 12일부터 순차적 재택근무 진행</t>
+  </si>
+  <si>
+    <t>주목받는 네이버 '이용자 중심 정산'…음원사재기 피해 막는다</t>
+  </si>
+  <si>
+    <t>네이버(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>SKT, 디지털 건강관리사업 진출</t>
+  </si>
+  <si>
+    <t>SK하이닉스, 코로나 극복 전방위 지원</t>
+  </si>
+  <si>
+    <t>STX중공업(주) 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>유리 TREX 중소형가치증권상장지수투자신탁(주식) 변경상장</t>
+  </si>
+  <si>
+    <t>[Talk 쏘는 종목] '마크로젠, 이에스브이, YBM넷' GO vs STOP</t>
+  </si>
+  <si>
+    <t>고려개발(주) (정정)주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)나스미디어 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)나스미디어 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)네오티스 매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>네오티스, 작년 영업이익 34억…전년 대비 28.5%↓</t>
+  </si>
+  <si>
+    <t>가짜뉴스 국민 행동강령 나오나 …방통위 논의</t>
+  </si>
+  <si>
+    <t>방준혁의 ‘융합장르’ 야심작…‘A3 스틸얼라이브’ 시장 출격</t>
+  </si>
+  <si>
+    <t>넷마블, 해외·국내 쌍끌이 흥행 노린다…‘A3’ 사전다운 애플 1위</t>
+  </si>
+  <si>
+    <t>에스에프씨·뉴프라이드, 회계 위반으로 검찰 고발·대표이사 해임권고</t>
+  </si>
+  <si>
+    <t>코로나19 불안 심리 악용…WHO 사칭 악성메일 '기승'</t>
+  </si>
+  <si>
+    <t>외국인 순매도 만주이상</t>
+  </si>
+  <si>
+    <t>(주)데일리블록체인 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)데일리블록체인 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>외국인 순매수 만주이상</t>
+  </si>
+  <si>
+    <t>脫원전에 쓰러진 두산重 '휴업' 택했다</t>
+  </si>
+  <si>
+    <t>휴업추진에 1조 채권만기…두산그룹株 급락</t>
+  </si>
+  <si>
+    <t>두산퓨얼셀 주식회사 공매도 과열종목 지정(공매도 거래 금지 적용)</t>
+  </si>
+  <si>
+    <t>디에이피, 13.4억원 규모 자사주 취득 결정</t>
+  </si>
+  <si>
+    <t>(주)디엔에이링크 전환사채(해외전환사채포함)발행후만기전사채취득(제8회차)</t>
+  </si>
+  <si>
+    <t>(주)레드캡투어 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>마크로젠 상한가…공매도 금지 종목 줄줄이 상승</t>
+  </si>
+  <si>
+    <t>(주)매직마이크로 전환가액의조정(제8회차)</t>
+  </si>
+  <si>
+    <t>메가스터디교육, 지난해 영업익 596.4억원…전년비 23.7%↑</t>
+  </si>
+  <si>
+    <t>미원스페셜티케미칼(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>미원홀딩스(주) 감사보고서 제출(자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>법원, 바이오빌 회생절차 폐지결정</t>
+  </si>
+  <si>
+    <t>바이오빌 "서울회생법원 회생절차 폐지 결정"</t>
+  </si>
+  <si>
+    <t>[코스닥 공시] 베셀</t>
+  </si>
+  <si>
+    <t>(주)빅토리콘텐츠 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>삼성 준법위, 이재용 부회장에 “경영권 승계 사과하라”..무노조 폐기 요구도(종합)</t>
+  </si>
+  <si>
+    <t>삼성SDS, 사업목적에 ‘전자금융업’ 철회...“사업방향 추가검토”</t>
+  </si>
+  <si>
+    <t>삼성SDS, 18일 주총 안건서 '전자금융업' 추가 철회</t>
+  </si>
+  <si>
+    <t>삼성전자, 멜라토닌으로 수면돕는 LED 조명 내놔</t>
+  </si>
+  <si>
+    <t>'빗장외교'에 속타는 한일 산업계</t>
+  </si>
+  <si>
+    <t>외인 매도 80%가 삼성전자...하루만에 시총 14.8조 증발</t>
+  </si>
+  <si>
+    <t>(주)삼호 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)서연이화 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>서연이화, 주당 100원 현금배당 결정</t>
+  </si>
+  <si>
+    <t>(주)선광 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)수성 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)아리온테크놀로지 (정정)유상증자결정(제3자배정)</t>
+  </si>
+  <si>
+    <t>(주)아이센스 불성실공시법인지정(공시번복)</t>
+  </si>
+  <si>
+    <t>거래소, 아이센스 불성실공시법인 지정</t>
   </si>
   <si>
     <t>아이티센, 지난해 영업익 241.2억원…전년비 131.8%↑</t>
   </si>
   <si>
-    <t>(주)네오티스 매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
-  </si>
-  <si>
-    <t>(주)나스미디어 주주총회소집결의</t>
-  </si>
-  <si>
-    <t>법원, 바이오빌 회생절차 폐지결정</t>
-  </si>
-  <si>
-    <t>네이버 콜센터, 오는 12일부터 순차적 재택근무 진행</t>
+    <t>화상회의·얼굴인식…앞선 기술로 '코로나' 뚫는 中企</t>
+  </si>
+  <si>
+    <t>(주)알에프텍 회사분할 결정</t>
+  </si>
+  <si>
+    <t>(주)알에프텍 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)알에프텍 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)액토즈소프트 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)에스모 머티리얼즈 (정정)내부결산시점 관리종목 지정 또는 상장폐지 사유 발생</t>
+  </si>
+  <si>
+    <t>증선위, 회계처리기준 위반 에스에프씨에 과징금 3억5000만원 부과</t>
+  </si>
+  <si>
+    <t>에이아이비트 (주) 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>에이아이비트 (주) 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)예스코홀딩스 현금ㆍ현물 배당 결정(자회사의 주요경영사항)</t>
+  </si>
+  <si>
+    <t>한성, 주당 679원 현금배당 결정</t>
+  </si>
+  <si>
+    <t>예스코, 주당 7000원 현금배당 결정</t>
+  </si>
+  <si>
+    <t>(주)예스코홀딩스 매출액또는손익구조30%(대규모법인은15%)이상변경(자회사의 주요경</t>
+  </si>
+  <si>
+    <t>예스코, 주당 7000원 현금배당</t>
+  </si>
+  <si>
+    <t>예스코, 작년 영업익 189억… 전년比 246%↑</t>
+  </si>
+  <si>
+    <t>(주)오리온 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)오리온홀딩스 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>우리바이오, 이숭래 전 동화약품 대표 영입</t>
+  </si>
+  <si>
+    <t>우리종합금융(주) 대표이사(대표집행임원) 변경(안내공시)</t>
+  </si>
+  <si>
+    <t>우리종금, 김종득 대표이사 신규 선임</t>
+  </si>
+  <si>
+    <t>에이스디엔씨, ‘경영참여 목적’ 웅진 주식 131만주 매수</t>
+  </si>
+  <si>
+    <t>유아이엘(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>[유가증권시장 공시] 화승인더스트리 / 유안타증권</t>
+  </si>
+  <si>
+    <t>유화증권, 1주당 가액 5000원→1000원으로 분할</t>
+  </si>
+  <si>
+    <t>(주)이매진아시아 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)이매진아시아 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)이오테크닉스 매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>(주)인피니트헬스케어 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)인피니트헬스케어 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)제일기획 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>조선내화(주) 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>조선내화, 23억 규모 자사주 취득 결정</t>
+  </si>
+  <si>
+    <t>싱가포르투자청, 지누스 주식 72만303주 장내매수</t>
+  </si>
+  <si>
+    <t>(주)케어랩스 (정정)최대주주 변경을 수반하는 주식 담보제공 계약 체결</t>
+  </si>
+  <si>
+    <t>코스모화학(주) (정정)전환사채권발행결정</t>
+  </si>
+  <si>
+    <t>(주)포레스팅블록체인 주주총회소집 결의</t>
+  </si>
+  <si>
+    <t>(주)포레스팅블록체인 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)퓨쳐켐 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)피엔아이컴퍼니 주주총회소집 결의</t>
+  </si>
+  <si>
+    <t>(주)하나투어 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)한국화장품제조 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>한솔시큐어(주) 최대주주 변경을 수반하는 주식양수도 계약 체결</t>
+  </si>
+  <si>
+    <t>한솔시큐어, 최대주주 변경 수반 양수도 계약 체결</t>
+  </si>
+  <si>
+    <t>(주)한일진공 주주총회 집중일 개최 사유 신고</t>
+  </si>
+  <si>
+    <t>(주)한일진공 주주총회소집결의</t>
+  </si>
+  <si>
+    <t>(주)한일진공 매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
+  </si>
+  <si>
+    <t>한화생명보험(주) 공매도 과열종목 지정(공매도 거래 금지 적용)</t>
+  </si>
+  <si>
+    <t>中 자동차 판매 78% 급감...베이징현대 13위로 뚝</t>
+  </si>
+  <si>
+    <t>주식회사 화승엔터프라이즈 감사보고서 제출</t>
+  </si>
+  <si>
+    <t>(주)휴온스 감사보고서 제출</t>
   </si>
   <si>
     <t>(주)휴온스글로벌 투자판단 관련 주요경영사항</t>
   </si>
   <si>
-    <t>우리바이오, 이숭래 전 동화약품 대표 영입</t>
-  </si>
-  <si>
-    <t>[Talk 쏘는 종목] '마크로젠, 이에스브이, YBM넷' GO vs STOP</t>
-  </si>
-  <si>
-    <t>(주)한일진공 주주총회 집중일 개최 사유 신고</t>
-  </si>
-  <si>
-    <t>(주)한일진공 주주총회소집결의</t>
-  </si>
-  <si>
-    <t>(주)한일진공 매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
-  </si>
-  <si>
-    <t>(주)데일리블록체인 주주총회소집결의</t>
-  </si>
-  <si>
-    <t>디에이피, 13.4억원 규모 자사주 취득 결정</t>
-  </si>
-  <si>
-    <t>마크로젠 상한가…공매도 금지 종목 줄줄이 상승</t>
-  </si>
-  <si>
-    <t>메가스터디교육, 지난해 영업익 596.4억원…전년비 23.7%↑</t>
-  </si>
-  <si>
-    <t>싱가포르투자청, 지누스 주식 72만303주 장내매수</t>
-  </si>
-  <si>
-    <t>휴업추진에 1조 채권만기…두산그룹株 급락</t>
-  </si>
-  <si>
-    <t>에이아이비트 (주) 주주총회 집중일 개최 사유 신고</t>
-  </si>
-  <si>
-    <t>(주)선광 감사보고서 제출</t>
-  </si>
-  <si>
-    <t>(주)이오테크닉스 매출액 또는 손익구조 30%(대규모법인은 15%)이상 변동</t>
-  </si>
-  <si>
-    <t>(주)수성 주주총회 집중일 개최 사유 신고</t>
-  </si>
-  <si>
-    <t>삼성 준법위, 이재용 부회장에 “경영권 승계 사과하라”..무노조 폐기 요구도(종합)</t>
-  </si>
-  <si>
-    <t>에이아이비트 (주) 주주총회소집결의</t>
-  </si>
-  <si>
-    <t>[유가증권시장 공시] 화승인더스트리 / 유안타증권</t>
-  </si>
-  <si>
-    <t>[코스닥 공시] 베셀</t>
-  </si>
-  <si>
-    <t>고려개발(주) (정정)주주총회소집결의</t>
-  </si>
-  <si>
-    <t>(주)하나투어 주주총회 집중일 개최 사유 신고</t>
-  </si>
-  <si>
-    <t>(주)예스코홀딩스 현금ㆍ현물 배당 결정(자회사의 주요경영사항)</t>
-  </si>
-  <si>
-    <t>가짜뉴스 국민 행동강령 나오나 …방통위 논의</t>
-  </si>
-  <si>
-    <t>증선위, 회계처리기준 위반 에스에프씨에 과징금 3억5000만원 부과</t>
-  </si>
-  <si>
-    <t>KB KBSTAR 우량업종대표주증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해지</t>
-  </si>
-  <si>
-    <t>KB KBSTAR IT플러스증권상장지수투자신탁(주식) ETF유동성공급자(LP)와유동성공급계약</t>
-  </si>
-  <si>
-    <t>KB KBSTAR IT플러스증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해지ㆍ변경</t>
-  </si>
-  <si>
-    <t>KB KBSTAR ESG사회책임투자증권상장지수투자신탁(주식) ETF유동성공급자(LP)와유동성</t>
-  </si>
-  <si>
-    <t>KB KBSTAR ESG사회책임투자증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해</t>
-  </si>
-  <si>
-    <t>KB KBSTAR 5대그룹주증권상장지수투자신탁(주식) ETF유동성공급자(LP)와유동성공급계</t>
-  </si>
-  <si>
-    <t>KB KBSTAR 5대그룹주증권상장지수투자신탁(주식) ETF지정참가회사(AP)추가ㆍ해지ㆍ변</t>
+    <t>(주)휴온스글로벌 감사보고서 제출(자회사의 주요경영사항)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,657 +1383,657 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1459,13 +2041,13 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1473,13 +2055,13 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1487,13 +2069,13 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1501,293 +2083,1651 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" t="s">
+        <v>204</v>
+      </c>
+      <c r="D118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" t="s">
+        <v>212</v>
+      </c>
+      <c r="D122" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" t="s">
+        <v>203</v>
+      </c>
+      <c r="D128" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+      <c r="B129" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" t="s">
+        <v>203</v>
+      </c>
+      <c r="D129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" t="s">
+        <v>166</v>
+      </c>
+      <c r="C133" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>75</v>
+      </c>
+      <c r="B134" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" t="s">
+        <v>209</v>
+      </c>
+      <c r="D134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" t="s">
+        <v>199</v>
+      </c>
+      <c r="D137" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" t="s">
+        <v>205</v>
+      </c>
+      <c r="D140" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>79</v>
+      </c>
+      <c r="B142" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>80</v>
+      </c>
+      <c r="B143" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" t="s">
-        <v>125</v>
+      <c r="B144" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" t="s">
+        <v>204</v>
+      </c>
+      <c r="D144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" t="s">
+        <v>204</v>
+      </c>
+      <c r="D145" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D146" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>85</v>
+      </c>
+      <c r="B151" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>177</v>
+      </c>
+      <c r="C152" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>87</v>
+      </c>
+      <c r="B153" t="s">
+        <v>178</v>
+      </c>
+      <c r="C153" t="s">
+        <v>215</v>
+      </c>
+      <c r="D153" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" t="s">
+        <v>178</v>
+      </c>
+      <c r="C154" t="s">
+        <v>213</v>
+      </c>
+      <c r="D154" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" t="s">
+        <v>213</v>
+      </c>
+      <c r="D155" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156" t="s">
+        <v>194</v>
+      </c>
+      <c r="D156" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157" t="s">
+        <v>194</v>
+      </c>
+      <c r="D157" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158" t="s">
+        <v>179</v>
+      </c>
+      <c r="C158" t="s">
+        <v>194</v>
+      </c>
+      <c r="D158" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" t="s">
+        <v>194</v>
+      </c>
+      <c r="D159" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" t="s">
+        <v>194</v>
+      </c>
+      <c r="D161" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" t="s">
+        <v>181</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D163" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>91</v>
+      </c>
+      <c r="B164" t="s">
+        <v>182</v>
+      </c>
+      <c r="C164" t="s">
+        <v>209</v>
+      </c>
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>92</v>
+      </c>
+      <c r="B165" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" t="s">
+        <v>195</v>
+      </c>
+      <c r="D165" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>93</v>
+      </c>
+      <c r="B166" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>94</v>
+      </c>
+      <c r="B167" t="s">
+        <v>185</v>
+      </c>
+      <c r="C167" t="s">
+        <v>188</v>
+      </c>
+      <c r="D167" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>94</v>
+      </c>
+      <c r="B168" t="s">
+        <v>185</v>
+      </c>
+      <c r="C168" t="s">
+        <v>188</v>
+      </c>
+      <c r="D168" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>94</v>
+      </c>
+      <c r="B169" t="s">
+        <v>185</v>
+      </c>
+      <c r="C169" t="s">
+        <v>209</v>
+      </c>
+      <c r="D169" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
